--- a/Excel/Validasi/Hasil_Pengujian_Map_128_avg_length.xlsx
+++ b/Excel/Validasi/Hasil_Pengujian_Map_128_avg_length.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEMHAS\TA_Python_Server\Excel\Validasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E717295-D1A1-409B-85B4-C4D33F763649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4169F046-B4D7-42F4-A99B-E1D4C6B7C210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="6216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Waktu Pencarian" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
     <sheet name="Jumlah Close" sheetId="5" r:id="rId5"/>
     <sheet name="Jumlah Belok" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Waktu Pencarian'!$A$1:$G$65</definedName>
-  </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -258,7 +255,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -318,10 +318,7309 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Waktu Pencarian'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Waktu Pencarian'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Waktu Pencarian'!$C$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.6179999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4964999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9490300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19765530000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A755-4465-90B6-85485675B22A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Waktu Pencarian'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Waktu Pencarian'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Waktu Pencarian'!$C$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0620000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5624E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3346000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6933599999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A755-4465-90B6-85485675B22A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Waktu Pencarian'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BRC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Waktu Pencarian'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Waktu Pencarian'!$C$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.4189999999999992E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6127999999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6629699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17959939999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A755-4465-90B6-85485675B22A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Waktu Pencarian'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Waktu Pencarian'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Waktu Pencarian'!$C$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.670000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3191999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7001799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17971889999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A755-4465-90B6-85485675B22A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Waktu Pencarian'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JPS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Waktu Pencarian'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Waktu Pencarian'!$C$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.9460000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9373999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5251000000000016E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8866099999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A755-4465-90B6-85485675B22A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Waktu Pencarian'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PPO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Waktu Pencarian'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Waktu Pencarian'!$C$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.139E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6455000000000012E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9297799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19891890000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A755-4465-90B6-85485675B22A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Waktu Pencarian'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TPF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Waktu Pencarian'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Waktu Pencarian'!$C$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.0429999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6562000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.963420000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19571060000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-A755-4465-90B6-85485675B22A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="928866832"/>
+        <c:axId val="928855312"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="928866832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="928855312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="928855312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="928866832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Panjang Jalur'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Panjang Jalur'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Panjang Jalur'!$C$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>184</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2637-4AE9-B6CB-FCA2BDE34369}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Panjang Jalur'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Panjang Jalur'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Panjang Jalur'!$C$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>184</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2637-4AE9-B6CB-FCA2BDE34369}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Panjang Jalur'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BRC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Panjang Jalur'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Panjang Jalur'!$C$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>206</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2637-4AE9-B6CB-FCA2BDE34369}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Panjang Jalur'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Panjang Jalur'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Panjang Jalur'!$C$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2637-4AE9-B6CB-FCA2BDE34369}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Panjang Jalur'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JPS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Panjang Jalur'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Panjang Jalur'!$C$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2637-4AE9-B6CB-FCA2BDE34369}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Panjang Jalur'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PPO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Panjang Jalur'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Panjang Jalur'!$C$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2637-4AE9-B6CB-FCA2BDE34369}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Panjang Jalur'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TPF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Panjang Jalur'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Panjang Jalur'!$C$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>184</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2637-4AE9-B6CB-FCA2BDE34369}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1405885024"/>
+        <c:axId val="1405885984"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1405885024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1405885984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1405885984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1405885024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Jumlah Open'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Jumlah Open'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Jumlah Open'!$C$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>417</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-499F-4FD7-BC46-6EF05D8E469E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Jumlah Open'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Jumlah Open'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Jumlah Open'!$C$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>632</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-499F-4FD7-BC46-6EF05D8E469E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Jumlah Open'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BRC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Jumlah Open'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Jumlah Open'!$C$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>563</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-499F-4FD7-BC46-6EF05D8E469E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Jumlah Open'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Jumlah Open'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Jumlah Open'!$C$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>355</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-499F-4FD7-BC46-6EF05D8E469E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Jumlah Open'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JPS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Jumlah Open'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Jumlah Open'!$C$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-499F-4FD7-BC46-6EF05D8E469E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Jumlah Open'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PPO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Jumlah Open'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Jumlah Open'!$C$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>417</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-499F-4FD7-BC46-6EF05D8E469E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Jumlah Open'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TPF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Jumlah Open'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Jumlah Open'!$C$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>396</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-499F-4FD7-BC46-6EF05D8E469E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1482912608"/>
+        <c:axId val="1482924128"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1482912608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1482924128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1482924128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1482912608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Jumlah Close'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Jumlah Close'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Jumlah Close'!$C$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1490</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2397-43A7-B2AE-ECEFCBBD1CEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Jumlah Close'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Jumlah Close'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Jumlah Close'!$C$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1073</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4219</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2397-43A7-B2AE-ECEFCBBD1CEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Jumlah Close'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BRC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Jumlah Close'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Jumlah Close'!$C$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2527</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2397-43A7-B2AE-ECEFCBBD1CEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Jumlah Close'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Jumlah Close'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Jumlah Close'!$C$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1130</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4447</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2397-43A7-B2AE-ECEFCBBD1CEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Jumlah Close'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JPS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Jumlah Close'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Jumlah Close'!$C$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2397-43A7-B2AE-ECEFCBBD1CEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Jumlah Close'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PPO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Jumlah Close'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Jumlah Close'!$C$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1490</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2397-43A7-B2AE-ECEFCBBD1CEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Jumlah Close'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TPF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Jumlah Close'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Jumlah Close'!$C$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1513</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6054</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2397-43A7-B2AE-ECEFCBBD1CEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1405879264"/>
+        <c:axId val="1405879744"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1405879264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1405879744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1405879744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1405879264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Jumlah Belok'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Jumlah Belok'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Jumlah Belok'!$C$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-53C8-440C-9832-D80BFCC92D5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Jumlah Belok'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Jumlah Belok'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Jumlah Belok'!$C$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-53C8-440C-9832-D80BFCC92D5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Jumlah Belok'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BRC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Jumlah Belok'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Jumlah Belok'!$C$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-53C8-440C-9832-D80BFCC92D5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Jumlah Belok'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Jumlah Belok'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Jumlah Belok'!$C$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-53C8-440C-9832-D80BFCC92D5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Jumlah Belok'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JPS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Jumlah Belok'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Jumlah Belok'!$C$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-53C8-440C-9832-D80BFCC92D5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Jumlah Belok'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PPO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Jumlah Belok'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Jumlah Belok'!$C$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-53C8-440C-9832-D80BFCC92D5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Jumlah Belok'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TPF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Jumlah Belok'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Jumlah Belok'!$C$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-53C8-440C-9832-D80BFCC92D5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1405889344"/>
+        <c:axId val="1405889824"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1405889344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1405889824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1405889824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1405889344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A1DC489-F6AB-688F-12BB-1EC6900150FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86C51489-5F24-8F42-64E5-2C80B468DA59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B514C9D1-FD65-9569-3BE1-FD88176DC42D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1F08B02-B352-AC01-8147-9842A2167E22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B667725E-FF4C-F8AC-4849-BB1AE8A84511}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Yellow">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -329,37 +7628,37 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="39302A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E5DEDB"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="FFCA08"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="F8931D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="CE8D3E"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="EC7016"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="E64823"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="9C6A6A"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="2998E3"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="7F723D"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -393,6 +7692,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -427,9 +7727,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -605,15 +7906,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -646,19 +7943,19 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>8.3749999999999992E-4</v>
+        <v>7.6179999999999998E-4</v>
       </c>
       <c r="D2">
-        <v>4.1856000000000003E-3</v>
+        <v>4.4964999999999996E-3</v>
       </c>
       <c r="E2">
-        <v>2.8031299999999999E-2</v>
+        <v>2.9490300000000001E-2</v>
       </c>
       <c r="F2">
-        <v>0.1851061</v>
+        <v>0.19765530000000001</v>
       </c>
       <c r="G2">
-        <v>5.4540125000000002E-2</v>
+        <v>5.8100974999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -669,19 +7966,19 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>4.15E-4</v>
+        <v>4.0620000000000001E-4</v>
       </c>
       <c r="D3">
-        <v>1.6410999999999999E-3</v>
+        <v>1.5624E-3</v>
       </c>
       <c r="E3">
-        <v>6.3774000000000001E-3</v>
+        <v>6.3346000000000001E-3</v>
       </c>
       <c r="F3">
-        <v>2.61505E-2</v>
+        <v>2.6933599999999999E-2</v>
       </c>
       <c r="G3">
-        <v>8.6460000000000009E-3</v>
+        <v>8.8091999999999997E-3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -692,19 +7989,19 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>9.2450000000000019E-4</v>
+        <v>8.4189999999999992E-4</v>
       </c>
       <c r="D4">
-        <v>4.3061000000000002E-3</v>
+        <v>4.6127999999999994E-3</v>
       </c>
       <c r="E4">
-        <v>2.5700600000000001E-2</v>
+        <v>2.6629699999999999E-2</v>
       </c>
       <c r="F4">
-        <v>0.17167299999999999</v>
+        <v>0.17959939999999999</v>
       </c>
       <c r="G4">
-        <v>5.0651050000000003E-2</v>
+        <v>5.2920950000000008E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -715,19 +8012,19 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>8.0029999999999999E-4</v>
+        <v>7.670000000000001E-4</v>
       </c>
       <c r="D5">
-        <v>4.140200000000001E-3</v>
+        <v>4.3191999999999996E-3</v>
       </c>
       <c r="E5">
-        <v>2.5576700000000001E-2</v>
+        <v>2.7001799999999999E-2</v>
       </c>
       <c r="F5">
-        <v>0.1677351</v>
+        <v>0.17971889999999999</v>
       </c>
       <c r="G5">
-        <v>4.9563074999999998E-2</v>
+        <v>5.2951724999999998E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -738,19 +8035,19 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>5.3890000000000003E-4</v>
+        <v>5.9460000000000003E-4</v>
       </c>
       <c r="D6">
-        <v>1.9530999999999999E-3</v>
+        <v>1.9373999999999999E-3</v>
       </c>
       <c r="E6">
-        <v>7.2088999999999999E-3</v>
+        <v>7.5251000000000016E-3</v>
       </c>
       <c r="F6">
-        <v>2.74387E-2</v>
+        <v>2.8866099999999999E-2</v>
       </c>
       <c r="G6">
-        <v>9.2849000000000004E-3</v>
+        <v>9.7308000000000013E-3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -761,19 +8058,19 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>8.4309999999999995E-4</v>
+        <v>8.139E-4</v>
       </c>
       <c r="D7">
-        <v>4.3191999999999996E-3</v>
+        <v>4.6455000000000012E-3</v>
       </c>
       <c r="E7">
-        <v>2.7917500000000001E-2</v>
+        <v>2.9297799999999999E-2</v>
       </c>
       <c r="F7">
-        <v>0.18747939999999999</v>
+        <v>0.19891890000000001</v>
       </c>
       <c r="G7">
-        <v>5.5139800000000003E-2</v>
+        <v>5.8419024999999992E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -784,19 +8081,19 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>8.7790000000000003E-4</v>
+        <v>8.0429999999999998E-4</v>
       </c>
       <c r="D8">
-        <v>4.4126000000000009E-3</v>
+        <v>4.6562000000000001E-3</v>
       </c>
       <c r="E8">
-        <v>2.8367799999999999E-2</v>
+        <v>2.963420000000001E-2</v>
       </c>
       <c r="F8">
-        <v>0.1833303</v>
+        <v>0.19571060000000001</v>
       </c>
       <c r="G8">
-        <v>5.4247150000000001E-2</v>
+        <v>5.7701324999999998E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -807,19 +8104,19 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>6.0589999999999993E-4</v>
+        <v>6.265000000000001E-4</v>
       </c>
       <c r="D9">
-        <v>2.4813999999999999E-3</v>
+        <v>2.5016999999999999E-3</v>
       </c>
       <c r="E9">
-        <v>1.08253E-2</v>
+        <v>1.07648E-2</v>
       </c>
       <c r="F9">
-        <v>5.2981599999999997E-2</v>
+        <v>5.4254700000000003E-2</v>
       </c>
       <c r="G9">
-        <v>1.672355E-2</v>
+        <v>1.7036925000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -830,19 +8127,19 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>3.5629999999999999E-4</v>
+        <v>3.4450000000000003E-4</v>
       </c>
       <c r="D10">
-        <v>1.6314000000000001E-3</v>
+        <v>1.6221E-3</v>
       </c>
       <c r="E10">
-        <v>8.2843000000000014E-3</v>
+        <v>6.9696000000000011E-3</v>
       </c>
       <c r="F10">
-        <v>2.997E-2</v>
+        <v>3.1258699999999993E-2</v>
       </c>
       <c r="G10">
-        <v>1.00605E-2</v>
+        <v>1.0048725E-2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -853,19 +8150,19 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>4.5560000000000002E-4</v>
+        <v>4.5530000000000001E-4</v>
       </c>
       <c r="D11">
-        <v>1.6604E-3</v>
+        <v>1.6872E-3</v>
       </c>
       <c r="E11">
-        <v>6.7331000000000014E-3</v>
+        <v>6.6981000000000002E-3</v>
       </c>
       <c r="F11">
-        <v>2.6642200000000001E-2</v>
+        <v>2.7970100000000001E-2</v>
       </c>
       <c r="G11">
-        <v>8.8728249999999991E-3</v>
+        <v>9.2026750000000004E-3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -876,19 +8173,19 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <v>4.6109999999999999E-4</v>
+        <v>4.3770000000000001E-4</v>
       </c>
       <c r="D12">
-        <v>1.7455999999999999E-3</v>
+        <v>1.7867E-3</v>
       </c>
       <c r="E12">
-        <v>6.7291E-3</v>
+        <v>6.7107E-3</v>
       </c>
       <c r="F12">
-        <v>2.7352999999999999E-2</v>
+        <v>2.983209999999999E-2</v>
       </c>
       <c r="G12">
-        <v>9.072199999999999E-3</v>
+        <v>9.6917999999999987E-3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -899,19 +8196,19 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>9.9659999999999983E-4</v>
+        <v>8.7869999999999995E-4</v>
       </c>
       <c r="D13">
-        <v>4.5716000000000003E-3</v>
+        <v>4.6594999999999996E-3</v>
       </c>
       <c r="E13">
-        <v>2.6160699999999999E-2</v>
+        <v>2.69398E-2</v>
       </c>
       <c r="F13">
-        <v>0.17085929999999999</v>
+        <v>0.18033360000000001</v>
       </c>
       <c r="G13">
-        <v>5.0647049999999999E-2</v>
+        <v>5.3202899999999997E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -922,19 +8219,19 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>1.0434999999999999E-3</v>
+        <v>1.0009999999999999E-3</v>
       </c>
       <c r="D14">
-        <v>4.6131999999999996E-3</v>
+        <v>5.0354000000000006E-3</v>
       </c>
       <c r="E14">
-        <v>2.9511800000000001E-2</v>
+        <v>3.0559900000000001E-2</v>
       </c>
       <c r="F14">
-        <v>0.18733900000000001</v>
+        <v>0.1982718</v>
       </c>
       <c r="G14">
-        <v>5.5626874999999999E-2</v>
+        <v>5.8717024999999992E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -945,19 +8242,19 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>1.018E-3</v>
+        <v>1.0043999999999999E-3</v>
       </c>
       <c r="D15">
-        <v>5.6279999999999993E-3</v>
+        <v>5.6975000000000003E-3</v>
       </c>
       <c r="E15">
-        <v>3.33035E-2</v>
+        <v>3.5622800000000003E-2</v>
       </c>
       <c r="F15">
-        <v>0.21696779999999999</v>
+        <v>0.2268336</v>
       </c>
       <c r="G15">
-        <v>6.4229325000000004E-2</v>
+        <v>6.728957499999999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -968,19 +8265,19 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>8.0250000000000004E-4</v>
+        <v>8.1799999999999993E-4</v>
       </c>
       <c r="D16">
-        <v>4.1469000000000002E-3</v>
+        <v>4.457899999999999E-3</v>
       </c>
       <c r="E16">
-        <v>2.5891500000000001E-2</v>
+        <v>2.73131E-2</v>
       </c>
       <c r="F16">
-        <v>0.16902139999999999</v>
+        <v>0.18093699999999999</v>
       </c>
       <c r="G16">
-        <v>4.9965574999999998E-2</v>
+        <v>5.3381499999999998E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -991,19 +8288,19 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>8.61E-4</v>
+        <v>8.2909999999999993E-4</v>
       </c>
       <c r="D17">
-        <v>4.3085000000000007E-3</v>
+        <v>4.5184999999999999E-3</v>
       </c>
       <c r="E17">
-        <v>2.5069399999999999E-2</v>
+        <v>2.6368699999999998E-2</v>
       </c>
       <c r="F17">
-        <v>0.15697800000000001</v>
+        <v>0.16823879999999999</v>
       </c>
       <c r="G17">
-        <v>4.6804224999999998E-2</v>
+        <v>4.9988775000000013E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1014,19 +8311,19 @@
         <v>23</v>
       </c>
       <c r="C18">
-        <v>4.3580000000000008E-4</v>
+        <v>4.5330000000000012E-4</v>
       </c>
       <c r="D18">
-        <v>1.4379E-3</v>
+        <v>1.4507999999999999E-3</v>
       </c>
       <c r="E18">
-        <v>4.4872999999999996E-3</v>
+        <v>4.6766000000000004E-3</v>
       </c>
       <c r="F18">
-        <v>1.6003199999999999E-2</v>
+        <v>1.7816200000000001E-2</v>
       </c>
       <c r="G18">
-        <v>5.5910500000000002E-3</v>
+        <v>6.0992249999999998E-3</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1037,19 +8334,19 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <v>4.6680000000000002E-4</v>
+        <v>6.2999999999999992E-4</v>
       </c>
       <c r="D19">
-        <v>1.4392000000000001E-3</v>
+        <v>1.4603000000000001E-3</v>
       </c>
       <c r="E19">
-        <v>4.3549999999999986E-3</v>
+        <v>4.4806999999999989E-3</v>
       </c>
       <c r="F19">
-        <v>1.4873000000000001E-2</v>
+        <v>1.52268E-2</v>
       </c>
       <c r="G19">
-        <v>5.2835E-3</v>
+        <v>5.4494499999999998E-3</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1060,19 +8357,19 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <v>5.844E-4</v>
+        <v>6.0559999999999998E-4</v>
       </c>
       <c r="D20">
-        <v>1.7080999999999999E-3</v>
+        <v>1.7579E-3</v>
       </c>
       <c r="E20">
-        <v>6.1295000000000004E-3</v>
+        <v>6.2604999999999996E-3</v>
       </c>
       <c r="F20">
-        <v>2.1998299999999998E-2</v>
+        <v>2.3166300000000001E-2</v>
       </c>
       <c r="G20">
-        <v>7.6050749999999993E-3</v>
+        <v>7.9475749999999984E-3</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1083,19 +8380,19 @@
         <v>26</v>
       </c>
       <c r="C21">
-        <v>5.6549999999999992E-4</v>
+        <v>9.2180000000000007E-4</v>
       </c>
       <c r="D21">
-        <v>1.9400000000000001E-3</v>
+        <v>2.0295000000000001E-3</v>
       </c>
       <c r="E21">
-        <v>7.2177000000000014E-3</v>
+        <v>7.8428000000000005E-3</v>
       </c>
       <c r="F21">
-        <v>2.7503199999999998E-2</v>
+        <v>2.9053900000000001E-2</v>
       </c>
       <c r="G21">
-        <v>9.3065999999999999E-3</v>
+        <v>9.9620000000000021E-3</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1106,19 +8403,19 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>5.5060000000000005E-4</v>
+        <v>1.0610999999999999E-3</v>
       </c>
       <c r="D22">
-        <v>2.1367000000000001E-3</v>
+        <v>2.1995000000000001E-3</v>
       </c>
       <c r="E22">
-        <v>7.7978999999999991E-3</v>
+        <v>8.5648999999999986E-3</v>
       </c>
       <c r="F22">
-        <v>2.9848300000000001E-2</v>
+        <v>3.2096100000000002E-2</v>
       </c>
       <c r="G22">
-        <v>1.0083375E-2</v>
+        <v>1.09804E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1129,19 +8426,19 @@
         <v>28</v>
       </c>
       <c r="C23">
-        <v>9.6120000000000005E-4</v>
+        <v>8.4620000000000008E-4</v>
       </c>
       <c r="D23">
-        <v>4.4758000000000003E-3</v>
+        <v>4.7343999999999997E-3</v>
       </c>
       <c r="E23">
-        <v>2.8415099999999999E-2</v>
+        <v>2.9958800000000001E-2</v>
       </c>
       <c r="F23">
-        <v>0.1826401</v>
+        <v>0.1951687</v>
       </c>
       <c r="G23">
-        <v>5.4123049999999999E-2</v>
+        <v>5.7677025E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1152,19 +8449,19 @@
         <v>29</v>
       </c>
       <c r="C24">
-        <v>5.8639999999999994E-4</v>
+        <v>6.2140000000000003E-4</v>
       </c>
       <c r="D24">
-        <v>2.6066000000000001E-3</v>
+        <v>2.6714999999999998E-3</v>
       </c>
       <c r="E24">
-        <v>1.0885000000000001E-2</v>
+        <v>1.10778E-2</v>
       </c>
       <c r="F24">
-        <v>5.3773000000000001E-2</v>
+        <v>5.5632099999999997E-2</v>
       </c>
       <c r="G24">
-        <v>1.6962749999999999E-2</v>
+        <v>1.7500700000000001E-2</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1175,19 +8472,19 @@
         <v>30</v>
       </c>
       <c r="C25">
-        <v>6.2290000000000002E-4</v>
+        <v>6.6189999999999999E-4</v>
       </c>
       <c r="D25">
-        <v>2.4451999999999998E-3</v>
+        <v>2.3698999999999999E-3</v>
       </c>
       <c r="E25">
-        <v>1.1757999999999999E-2</v>
+        <v>1.15847E-2</v>
       </c>
       <c r="F25">
-        <v>5.3937100000000002E-2</v>
+        <v>5.4989799999999998E-2</v>
       </c>
       <c r="G25">
-        <v>1.7190799999999999E-2</v>
+        <v>1.7401574999999999E-2</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1198,19 +8495,19 @@
         <v>31</v>
       </c>
       <c r="C26">
-        <v>6.5909999999999992E-4</v>
+        <v>5.4770000000000003E-4</v>
       </c>
       <c r="D26">
-        <v>3.0452000000000001E-3</v>
+        <v>2.6494000000000001E-3</v>
       </c>
       <c r="E26">
-        <v>1.1668E-2</v>
+        <v>1.1698200000000001E-2</v>
       </c>
       <c r="F26">
-        <v>5.8226299999999988E-2</v>
+        <v>5.8899699999999999E-2</v>
       </c>
       <c r="G26">
-        <v>1.839965E-2</v>
+        <v>1.844875E-2</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1221,19 +8518,19 @@
         <v>32</v>
       </c>
       <c r="C27">
-        <v>4.4600000000000011E-4</v>
+        <v>4.217E-4</v>
       </c>
       <c r="D27">
-        <v>1.7409999999999999E-3</v>
+        <v>1.7553E-3</v>
       </c>
       <c r="E27">
-        <v>7.2561000000000006E-3</v>
+        <v>7.3360999999999999E-3</v>
       </c>
       <c r="F27">
-        <v>3.0646400000000001E-2</v>
+        <v>3.2130899999999997E-2</v>
       </c>
       <c r="G27">
-        <v>1.0022375E-2</v>
+        <v>1.0411E-2</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1244,19 +8541,19 @@
         <v>33</v>
       </c>
       <c r="C28">
-        <v>4.1459999999999989E-4</v>
+        <v>4.261E-4</v>
       </c>
       <c r="D28">
-        <v>1.7108E-3</v>
+        <v>1.7336999999999999E-3</v>
       </c>
       <c r="E28">
-        <v>7.1217999999999993E-3</v>
+        <v>7.1470000000000006E-3</v>
       </c>
       <c r="F28">
-        <v>3.0437800000000001E-2</v>
+        <v>3.1978999999999987E-2</v>
       </c>
       <c r="G28">
-        <v>9.9212500000000012E-3</v>
+        <v>1.0321449999999999E-2</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1267,19 +8564,19 @@
         <v>34</v>
       </c>
       <c r="C29">
-        <v>5.3029999999999993E-4</v>
+        <v>5.1489999999999999E-4</v>
       </c>
       <c r="D29">
-        <v>1.9061E-3</v>
+        <v>2.0111999999999999E-3</v>
       </c>
       <c r="E29">
-        <v>7.1329000000000002E-3</v>
+        <v>7.0639999999999991E-3</v>
       </c>
       <c r="F29">
-        <v>2.8042500000000001E-2</v>
+        <v>2.9408699999999999E-2</v>
       </c>
       <c r="G29">
-        <v>9.4029500000000002E-3</v>
+        <v>9.7497E-3</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1290,19 +8587,19 @@
         <v>35</v>
       </c>
       <c r="C30">
-        <v>1.0233E-3</v>
+        <v>1.0248E-3</v>
       </c>
       <c r="D30">
-        <v>4.7701999999999996E-3</v>
+        <v>5.0166000000000004E-3</v>
       </c>
       <c r="E30">
-        <v>3.1325400000000003E-2</v>
+        <v>3.08878E-2</v>
       </c>
       <c r="F30">
-        <v>0.18693170000000001</v>
+        <v>0.19907150000000001</v>
       </c>
       <c r="G30">
-        <v>5.6012649999999997E-2</v>
+        <v>5.9000175000000002E-2</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1313,19 +8610,19 @@
         <v>36</v>
       </c>
       <c r="C31">
-        <v>1.0797000000000001E-3</v>
+        <v>1.0409E-3</v>
       </c>
       <c r="D31">
-        <v>5.6541999999999999E-3</v>
+        <v>5.7052000000000014E-3</v>
       </c>
       <c r="E31">
-        <v>3.3371499999999998E-2</v>
+        <v>3.4397799999999999E-2</v>
       </c>
       <c r="F31">
-        <v>0.21456330000000001</v>
+        <v>0.2273655</v>
       </c>
       <c r="G31">
-        <v>6.3667175000000006E-2</v>
+        <v>6.7127349999999988E-2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1336,19 +8633,19 @@
         <v>37</v>
       </c>
       <c r="C32">
-        <v>1.0693E-3</v>
+        <v>1.1705999999999999E-3</v>
       </c>
       <c r="D32">
-        <v>5.7859999999999986E-3</v>
+        <v>5.8308000000000014E-3</v>
       </c>
       <c r="E32">
-        <v>3.2667300000000003E-2</v>
+        <v>3.3364100000000001E-2</v>
       </c>
       <c r="F32">
-        <v>0.20759369999999999</v>
+        <v>0.22037129999999999</v>
       </c>
       <c r="G32">
-        <v>6.1779075000000003E-2</v>
+        <v>6.5184199999999998E-2</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1359,19 +8656,19 @@
         <v>38</v>
       </c>
       <c r="C33">
-        <v>8.2220000000000004E-4</v>
+        <v>8.4879999999999992E-4</v>
       </c>
       <c r="D33">
-        <v>4.3560999999999999E-3</v>
+        <v>4.6035999999999994E-3</v>
       </c>
       <c r="E33">
-        <v>2.5220099999999999E-2</v>
+        <v>2.6694900000000001E-2</v>
       </c>
       <c r="F33">
-        <v>0.15794739999999999</v>
+        <v>0.1690681</v>
       </c>
       <c r="G33">
-        <v>4.7086450000000002E-2</v>
+        <v>5.0303849999999997E-2</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1382,19 +8679,19 @@
         <v>39</v>
       </c>
       <c r="C34">
-        <v>5.0540000000000003E-4</v>
+        <v>4.6569999999999999E-4</v>
       </c>
       <c r="D34">
-        <v>1.2863E-3</v>
+        <v>1.2857000000000001E-3</v>
       </c>
       <c r="E34">
-        <v>3.9061E-3</v>
+        <v>4.0703000000000007E-3</v>
       </c>
       <c r="F34">
-        <v>1.33612E-2</v>
+        <v>1.4015400000000001E-2</v>
       </c>
       <c r="G34">
-        <v>4.7647499999999999E-3</v>
+        <v>4.9592750000000008E-3</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -1405,19 +8702,19 @@
         <v>40</v>
       </c>
       <c r="C35">
-        <v>2.8519999999999999E-4</v>
+        <v>3.5730000000000001E-4</v>
       </c>
       <c r="D35">
-        <v>8.8409999999999997E-4</v>
+        <v>8.6689999999999998E-4</v>
       </c>
       <c r="E35">
-        <v>2.8827000000000002E-3</v>
+        <v>2.9426000000000009E-3</v>
       </c>
       <c r="F35">
-        <v>1.0713800000000001E-2</v>
+        <v>1.08445E-2</v>
       </c>
       <c r="G35">
-        <v>3.6914500000000002E-3</v>
+        <v>3.752825E-3</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -1428,19 +8725,19 @@
         <v>41</v>
       </c>
       <c r="C36">
-        <v>5.1210000000000003E-4</v>
+        <v>5.0949999999999997E-4</v>
       </c>
       <c r="D36">
-        <v>1.5118E-3</v>
+        <v>1.5012000000000001E-3</v>
       </c>
       <c r="E36">
-        <v>4.6540000000000002E-3</v>
+        <v>4.8114999999999989E-3</v>
       </c>
       <c r="F36">
-        <v>1.62875E-2</v>
+        <v>1.6851999999999999E-2</v>
       </c>
       <c r="G36">
-        <v>5.741350000000001E-3</v>
+        <v>5.9185499999999999E-3</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1451,19 +8748,19 @@
         <v>42</v>
       </c>
       <c r="C37">
-        <v>3.9350000000000002E-4</v>
+        <v>4.0640000000000001E-4</v>
       </c>
       <c r="D37">
-        <v>1.1766000000000001E-3</v>
+        <v>1.1669E-3</v>
       </c>
       <c r="E37">
-        <v>3.9468999999999997E-3</v>
+        <v>4.0563000000000014E-3</v>
       </c>
       <c r="F37">
-        <v>1.7565899999999999E-2</v>
+        <v>1.8590599999999999E-2</v>
       </c>
       <c r="G37">
-        <v>5.7707250000000009E-3</v>
+        <v>6.0550499999999993E-3</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -1474,19 +8771,19 @@
         <v>43</v>
       </c>
       <c r="C38">
-        <v>4.9419999999999998E-4</v>
+        <v>6.5899999999999997E-4</v>
       </c>
       <c r="D38">
-        <v>1.5704E-3</v>
+        <v>1.5311999999999999E-3</v>
       </c>
       <c r="E38">
-        <v>4.5453000000000004E-3</v>
+        <v>4.5424999999999997E-3</v>
       </c>
       <c r="F38">
-        <v>1.4729799999999999E-2</v>
+        <v>1.5390600000000001E-2</v>
       </c>
       <c r="G38">
-        <v>5.3349250000000008E-3</v>
+        <v>5.5308249999999996E-3</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -1497,19 +8794,19 @@
         <v>44</v>
       </c>
       <c r="C39">
-        <v>4.6050000000000008E-4</v>
+        <v>5.0809999999999994E-4</v>
       </c>
       <c r="D39">
-        <v>1.5058000000000001E-3</v>
+        <v>1.5246000000000001E-3</v>
       </c>
       <c r="E39">
-        <v>3.7526E-3</v>
+        <v>3.8374999999999989E-3</v>
       </c>
       <c r="F39">
-        <v>1.2395E-2</v>
+        <v>1.3088300000000001E-2</v>
       </c>
       <c r="G39">
-        <v>4.5284749999999997E-3</v>
+        <v>4.7396249999999999E-3</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -1520,19 +8817,19 @@
         <v>45</v>
       </c>
       <c r="C40">
-        <v>5.2329999999999998E-4</v>
+        <v>5.5810000000000007E-4</v>
       </c>
       <c r="D40">
-        <v>1.5663999999999999E-3</v>
+        <v>1.6132E-3</v>
       </c>
       <c r="E40">
-        <v>4.3564000000000007E-3</v>
+        <v>4.6219E-3</v>
       </c>
       <c r="F40">
-        <v>1.70879E-2</v>
+        <v>1.6771899999999999E-2</v>
       </c>
       <c r="G40">
-        <v>5.8835000000000007E-3</v>
+        <v>5.8912749999999996E-3</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -1543,19 +8840,19 @@
         <v>46</v>
       </c>
       <c r="C41">
-        <v>5.9499999999999993E-4</v>
+        <v>6.4750000000000007E-4</v>
       </c>
       <c r="D41">
-        <v>1.7741E-3</v>
+        <v>1.7868999999999999E-3</v>
       </c>
       <c r="E41">
-        <v>6.0241000000000001E-3</v>
+        <v>6.4270999999999998E-3</v>
       </c>
       <c r="F41">
-        <v>2.2162600000000001E-2</v>
+        <v>2.3231499999999999E-2</v>
       </c>
       <c r="G41">
-        <v>7.6389499999999994E-3</v>
+        <v>8.0232499999999991E-3</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -1566,19 +8863,19 @@
         <v>47</v>
       </c>
       <c r="C42">
-        <v>5.9800000000000001E-4</v>
+        <v>6.8350000000000008E-4</v>
       </c>
       <c r="D42">
-        <v>1.7324E-3</v>
+        <v>1.7593000000000001E-3</v>
       </c>
       <c r="E42">
-        <v>5.5034000000000003E-3</v>
+        <v>5.8018000000000002E-3</v>
       </c>
       <c r="F42">
-        <v>2.0389600000000001E-2</v>
+        <v>2.16031E-2</v>
       </c>
       <c r="G42">
-        <v>7.0558500000000007E-3</v>
+        <v>7.4619250000000003E-3</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -1589,19 +8886,19 @@
         <v>48</v>
       </c>
       <c r="C43">
-        <v>5.7149999999999996E-4</v>
+        <v>8.0080000000000017E-4</v>
       </c>
       <c r="D43">
-        <v>2.2483999999999998E-3</v>
+        <v>2.2314000000000001E-3</v>
       </c>
       <c r="E43">
-        <v>7.9708000000000001E-3</v>
+        <v>8.3797999999999997E-3</v>
       </c>
       <c r="F43">
-        <v>3.0382300000000001E-2</v>
+        <v>3.1707800000000008E-2</v>
       </c>
       <c r="G43">
-        <v>1.029325E-2</v>
+        <v>1.077995E-2</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -1612,19 +8909,19 @@
         <v>49</v>
       </c>
       <c r="C44">
-        <v>6.5049999999999993E-4</v>
+        <v>6.3959999999999993E-4</v>
       </c>
       <c r="D44">
-        <v>2.5401999999999998E-3</v>
+        <v>2.5013000000000001E-3</v>
       </c>
       <c r="E44">
-        <v>1.1921599999999999E-2</v>
+        <v>1.20792E-2</v>
       </c>
       <c r="F44">
-        <v>5.4683899999999987E-2</v>
+        <v>5.6136199999999997E-2</v>
       </c>
       <c r="G44">
-        <v>1.7449050000000001E-2</v>
+        <v>1.7839074999999999E-2</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -1635,19 +8932,19 @@
         <v>50</v>
       </c>
       <c r="C45">
-        <v>6.672999999999999E-4</v>
+        <v>6.0099999999999997E-4</v>
       </c>
       <c r="D45">
-        <v>2.7215E-3</v>
+        <v>2.8024999999999999E-3</v>
       </c>
       <c r="E45">
-        <v>1.2004799999999999E-2</v>
+        <v>1.19042E-2</v>
       </c>
       <c r="F45">
-        <v>5.7771500000000003E-2</v>
+        <v>5.9950700000000003E-2</v>
       </c>
       <c r="G45">
-        <v>1.8291274999999999E-2</v>
+        <v>1.8814600000000001E-2</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -1658,19 +8955,19 @@
         <v>51</v>
       </c>
       <c r="C46">
-        <v>5.8350000000000003E-4</v>
+        <v>5.7430000000000003E-4</v>
       </c>
       <c r="D46">
-        <v>2.6865999999999999E-3</v>
+        <v>2.7203000000000001E-3</v>
       </c>
       <c r="E46">
-        <v>1.1248899999999999E-2</v>
+        <v>1.1268200000000001E-2</v>
       </c>
       <c r="F46">
-        <v>5.4930199999999998E-2</v>
+        <v>5.6456100000000009E-2</v>
       </c>
       <c r="G46">
-        <v>1.7362300000000001E-2</v>
+        <v>1.7754724999999999E-2</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -1681,19 +8978,19 @@
         <v>52</v>
       </c>
       <c r="C47">
-        <v>1.3270999999999999E-3</v>
+        <v>4.6630000000000011E-4</v>
       </c>
       <c r="D47">
-        <v>2.4434999999999999E-3</v>
+        <v>1.8859E-3</v>
       </c>
       <c r="E47">
-        <v>7.2746000000000009E-3</v>
+        <v>7.4336999999999997E-3</v>
       </c>
       <c r="F47">
-        <v>3.1154299999999999E-2</v>
+        <v>3.2956600000000003E-2</v>
       </c>
       <c r="G47">
-        <v>1.0549875E-2</v>
+        <v>1.0685625000000001E-2</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -1704,19 +9001,19 @@
         <v>53</v>
       </c>
       <c r="C48">
-        <v>1.1509000000000001E-3</v>
+        <v>1.2205E-3</v>
       </c>
       <c r="D48">
-        <v>5.9803999999999994E-3</v>
+        <v>6.0134999999999997E-3</v>
       </c>
       <c r="E48">
-        <v>3.3004099999999988E-2</v>
+        <v>3.36826E-2</v>
       </c>
       <c r="F48">
-        <v>0.21449199999999999</v>
+        <v>0.22101399999999999</v>
       </c>
       <c r="G48">
-        <v>6.3656850000000001E-2</v>
+        <v>6.5482650000000003E-2</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -1727,19 +9024,19 @@
         <v>54</v>
       </c>
       <c r="C49">
-        <v>5.3109999999999984E-4</v>
+        <v>4.9100000000000001E-4</v>
       </c>
       <c r="D49">
-        <v>1.341E-3</v>
+        <v>1.3431999999999999E-3</v>
       </c>
       <c r="E49">
-        <v>5.2166999999999986E-3</v>
+        <v>4.1236999999999992E-3</v>
       </c>
       <c r="F49">
-        <v>1.35233E-2</v>
+        <v>1.4094799999999999E-2</v>
       </c>
       <c r="G49">
-        <v>5.1530249999999986E-3</v>
+        <v>5.0131749999999999E-3</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -1750,19 +9047,19 @@
         <v>55</v>
       </c>
       <c r="C50">
-        <v>5.063E-4</v>
+        <v>4.5130000000000002E-4</v>
       </c>
       <c r="D50">
-        <v>1.2822E-3</v>
+        <v>1.3175000000000001E-3</v>
       </c>
       <c r="E50">
-        <v>3.8614000000000001E-3</v>
+        <v>3.9813000000000001E-3</v>
       </c>
       <c r="F50">
-        <v>1.48831E-2</v>
+        <v>1.5356E-2</v>
       </c>
       <c r="G50">
-        <v>5.1332499999999998E-3</v>
+        <v>5.2765250000000007E-3</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -1773,19 +9070,19 @@
         <v>56</v>
       </c>
       <c r="C51">
-        <v>3.5090000000000002E-4</v>
+        <v>5.1469999999999999E-4</v>
       </c>
       <c r="D51">
-        <v>9.3689999999999984E-4</v>
+        <v>9.3959999999999996E-4</v>
       </c>
       <c r="E51">
-        <v>2.9023999999999999E-3</v>
+        <v>3.0130999999999999E-3</v>
       </c>
       <c r="F51">
-        <v>1.04951E-2</v>
+        <v>1.0976E-2</v>
       </c>
       <c r="G51">
-        <v>3.671325E-3</v>
+        <v>3.8608499999999999E-3</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -1796,19 +9093,19 @@
         <v>57</v>
       </c>
       <c r="C52">
-        <v>3.302E-4</v>
+        <v>5.7359999999999996E-4</v>
       </c>
       <c r="D52">
-        <v>9.0850000000000013E-4</v>
+        <v>9.4559999999999989E-4</v>
       </c>
       <c r="E52">
-        <v>2.9727E-3</v>
+        <v>2.9952999999999998E-3</v>
       </c>
       <c r="F52">
-        <v>1.06354E-2</v>
+        <v>1.0976E-2</v>
       </c>
       <c r="G52">
-        <v>3.7117000000000001E-3</v>
+        <v>3.8726250000000002E-3</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -1819,19 +9116,19 @@
         <v>58</v>
       </c>
       <c r="C53">
-        <v>3.1179999999999999E-4</v>
+        <v>5.4940000000000002E-4</v>
       </c>
       <c r="D53">
-        <v>9.3249999999999995E-4</v>
+        <v>9.4970000000000005E-4</v>
       </c>
       <c r="E53">
-        <v>3.7722999999999988E-3</v>
+        <v>3.8319000000000001E-3</v>
       </c>
       <c r="F53">
-        <v>1.8093600000000001E-2</v>
+        <v>1.88773E-2</v>
       </c>
       <c r="G53">
-        <v>5.7775500000000002E-3</v>
+        <v>6.0520750000000014E-3</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -1842,19 +9139,19 @@
         <v>59</v>
       </c>
       <c r="C54">
-        <v>4.2969999999999998E-4</v>
+        <v>4.5320000000000001E-4</v>
       </c>
       <c r="D54">
-        <v>1.2057999999999999E-3</v>
+        <v>1.2045999999999999E-3</v>
       </c>
       <c r="E54">
-        <v>4.0237999999999993E-3</v>
+        <v>4.2801999999999996E-3</v>
       </c>
       <c r="F54">
-        <v>1.7836500000000002E-2</v>
+        <v>1.8682000000000001E-2</v>
       </c>
       <c r="G54">
-        <v>5.8739499999999993E-3</v>
+        <v>6.154999999999999E-3</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -1865,19 +9162,19 @@
         <v>60</v>
       </c>
       <c r="C55">
-        <v>5.2309999999999998E-4</v>
+        <v>5.510999999999999E-4</v>
       </c>
       <c r="D55">
-        <v>1.5773E-3</v>
+        <v>1.5384999999999999E-3</v>
       </c>
       <c r="E55">
-        <v>3.9257999999999993E-3</v>
+        <v>3.9665000000000004E-3</v>
       </c>
       <c r="F55">
-        <v>1.2785100000000001E-2</v>
+        <v>1.32236E-2</v>
       </c>
       <c r="G55">
-        <v>4.702824999999999E-3</v>
+        <v>4.8199249999999992E-3</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -1888,19 +9185,19 @@
         <v>61</v>
       </c>
       <c r="C56">
-        <v>5.4619999999999994E-4</v>
+        <v>6.7360000000000011E-4</v>
       </c>
       <c r="D56">
-        <v>1.6061000000000001E-3</v>
+        <v>1.6570999999999999E-3</v>
       </c>
       <c r="E56">
-        <v>4.5480999999999994E-3</v>
+        <v>4.6202999999999999E-3</v>
       </c>
       <c r="F56">
-        <v>1.61788E-2</v>
+        <v>1.6931499999999999E-2</v>
       </c>
       <c r="G56">
-        <v>5.7197999999999997E-3</v>
+        <v>5.9706250000000002E-3</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -1911,19 +9208,19 @@
         <v>62</v>
       </c>
       <c r="C57">
-        <v>5.4999999999999992E-4</v>
+        <v>5.4839999999999999E-4</v>
       </c>
       <c r="D57">
-        <v>1.5948E-3</v>
+        <v>2.1775000000000002E-3</v>
       </c>
       <c r="E57">
-        <v>4.3664999999999997E-3</v>
+        <v>4.6321000000000001E-3</v>
       </c>
       <c r="F57">
-        <v>1.59598E-2</v>
+        <v>1.6839799999999999E-2</v>
       </c>
       <c r="G57">
-        <v>5.6177750000000002E-3</v>
+        <v>6.0494499999999996E-3</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -1934,19 +9231,19 @@
         <v>63</v>
       </c>
       <c r="C58">
-        <v>7.1140000000000005E-4</v>
+        <v>6.7329999999999994E-4</v>
       </c>
       <c r="D58">
-        <v>1.8358000000000001E-3</v>
+        <v>1.8400000000000001E-3</v>
       </c>
       <c r="E58">
-        <v>5.7192000000000007E-3</v>
+        <v>5.8638000000000006E-3</v>
       </c>
       <c r="F58">
-        <v>2.09851E-2</v>
+        <v>2.1877600000000001E-2</v>
       </c>
       <c r="G58">
-        <v>7.3128749999999999E-3</v>
+        <v>7.5636750000000006E-3</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -1957,19 +9254,19 @@
         <v>64</v>
       </c>
       <c r="C59">
-        <v>6.9410000000000012E-4</v>
+        <v>6.2799999999999998E-4</v>
       </c>
       <c r="D59">
-        <v>2.8059000000000001E-3</v>
+        <v>2.8365999999999999E-3</v>
       </c>
       <c r="E59">
-        <v>1.16151E-2</v>
+        <v>1.17159E-2</v>
       </c>
       <c r="F59">
-        <v>5.5609899999999997E-2</v>
+        <v>5.7464399999999992E-2</v>
       </c>
       <c r="G59">
-        <v>1.7681249999999999E-2</v>
+        <v>1.8161225E-2</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -1980,19 +9277,19 @@
         <v>65</v>
       </c>
       <c r="C60">
-        <v>5.0289999999999992E-4</v>
+        <v>4.9349999999999991E-4</v>
       </c>
       <c r="D60">
-        <v>1.3904E-3</v>
+        <v>1.3966E-3</v>
       </c>
       <c r="E60">
-        <v>3.9772000000000002E-3</v>
+        <v>4.1328000000000007E-3</v>
       </c>
       <c r="F60">
-        <v>1.5115E-2</v>
+        <v>1.5599099999999999E-2</v>
       </c>
       <c r="G60">
-        <v>5.2463750000000002E-3</v>
+        <v>5.4055000000000006E-3</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -2003,19 +9300,19 @@
         <v>66</v>
       </c>
       <c r="C61">
-        <v>4.0170000000000011E-4</v>
+        <v>5.7160000000000002E-4</v>
       </c>
       <c r="D61">
-        <v>1.0081000000000001E-3</v>
+        <v>1.0068E-3</v>
       </c>
       <c r="E61">
-        <v>3.0538000000000002E-3</v>
+        <v>3.1421999999999999E-3</v>
       </c>
       <c r="F61">
-        <v>1.20009E-2</v>
+        <v>1.12347E-2</v>
       </c>
       <c r="G61">
-        <v>4.116125E-3</v>
+        <v>3.9888249999999997E-3</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -2026,19 +9323,19 @@
         <v>67</v>
       </c>
       <c r="C62">
-        <v>3.6939999999999998E-4</v>
+        <v>3.5829999999999998E-4</v>
       </c>
       <c r="D62">
-        <v>1.0207E-3</v>
+        <v>1.0078999999999999E-3</v>
       </c>
       <c r="E62">
-        <v>3.4453000000000001E-3</v>
+        <v>3.5617999999999999E-3</v>
       </c>
       <c r="F62">
-        <v>1.6763799999999999E-2</v>
+        <v>1.7563800000000001E-2</v>
       </c>
       <c r="G62">
-        <v>5.3998000000000006E-3</v>
+        <v>5.6229499999999998E-3</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -2049,19 +9346,19 @@
         <v>68</v>
       </c>
       <c r="C63">
-        <v>3.5500000000000001E-4</v>
+        <v>5.4819999999999999E-4</v>
       </c>
       <c r="D63">
-        <v>1.0437999999999999E-3</v>
+        <v>1.034E-3</v>
       </c>
       <c r="E63">
-        <v>3.8731999999999998E-3</v>
+        <v>3.9698000000000008E-3</v>
       </c>
       <c r="F63">
-        <v>1.8505400000000002E-2</v>
+        <v>1.9034599999999999E-2</v>
       </c>
       <c r="G63">
-        <v>5.944350000000001E-3</v>
+        <v>6.1466499999999992E-3</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -2072,19 +9369,19 @@
         <v>69</v>
       </c>
       <c r="C64">
-        <v>5.5039999999999993E-4</v>
+        <v>6.0800000000000003E-4</v>
       </c>
       <c r="D64">
-        <v>1.6724999999999999E-3</v>
+        <v>2.3035E-3</v>
       </c>
       <c r="E64">
-        <v>4.5236000000000009E-3</v>
+        <v>4.9153000000000001E-3</v>
       </c>
       <c r="F64">
-        <v>1.6201900000000002E-2</v>
+        <v>1.6960099999999999E-2</v>
       </c>
       <c r="G64">
-        <v>5.7371000000000002E-3</v>
+        <v>6.1967250000000001E-3</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -2095,28 +9392,24 @@
         <v>70</v>
       </c>
       <c r="C65">
-        <v>4.4270000000000003E-4</v>
+        <v>4.3320000000000001E-4</v>
       </c>
       <c r="D65">
-        <v>1.093E-3</v>
+        <v>1.0485E-3</v>
       </c>
       <c r="E65">
-        <v>3.5314000000000001E-3</v>
+        <v>3.6372000000000002E-3</v>
       </c>
       <c r="F65">
-        <v>1.6916799999999999E-2</v>
+        <v>1.7820800000000001E-2</v>
       </c>
       <c r="G65">
-        <v>5.4959750000000002E-3</v>
+        <v>5.7349249999999992E-3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G65" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G65">
-      <sortCondition ref="A1:A65"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2124,7 +9417,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -3624,7 +10919,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3635,6 +10931,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -5132,7 +12432,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5140,7 +12440,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -6640,7 +13942,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6648,7 +13951,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -8148,7 +15453,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8156,7 +15462,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -9656,6 +16964,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>